--- a/biology/Zoologie/Calosoma/Calosoma.xlsx
+++ b/biology/Zoologie/Calosoma/Calosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calosoma est un genre d'insectes de l'ordre des coléoptères, de la famille des carabidés.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Calosoma est décrit par l'entomologiste allemand Friedrich Weber (1781-1823) en 1801[1],[2].
-Tribu
-Le genre Calosoma est classé dans la tribu Carabini par LeConte en 1861, Tamutis et al. en 2011 et Bouchard et al. en 2011[3][2].
-Fossiles
-Selon Paleobiology Database en 2023, trente-deux collections de fossiles pour quarante-deux occurrences sont référencées, du Quaternaire, Pliocène, Miocène, Oligocène et Éocène, dans le monde entier et dans onze pays[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Calosoma est décrit par l'entomologiste allemand Friedrich Weber (1781-1823) en 1801,.
 </t>
         </is>
       </c>
@@ -543,12 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tribu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Calosoma est classé dans la tribu Carabini par LeConte en 1861, Tamutis et al. en 2011 et Bouchard et al. en 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calosoma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calosoma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, trente-deux collections de fossiles pour quarante-deux occurrences sont référencées, du Quaternaire, Pliocène, Miocène, Oligocène et Éocène, dans le monde entier et dans onze pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calosoma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calosoma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de seize[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de seize :
 †Calosoma agassizi Barthelemy-Lapommeraye 1846
 †Calosoma brunneum Hong 1985
 †Calosoma calvini Wickham 1909
@@ -564,36 +650,38 @@
 †Calosoma heeri Scudder 1895
 †Calosoma jaccardi Heer 1860
 †Calosoma kimi Lee and Nam 2021
-†Calosoma nauckianum Heer 1860[2]
+†Calosoma nauckianum Heer 1860
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Calosoma</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calosoma</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste des espèces du genre Calosoma
